--- a/Data_clean/MCAS/Estados_US/Edos_USA_2012/NEW_HAMPSHIRE_2012.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2012/NEW_HAMPSHIRE_2012.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Saltillo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Manzanillo</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Villa De Alvarez</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Cuauhtemoc</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>San Jose Iturbide</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Total</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -849,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Zapotitlan Tablas</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Total</t>
@@ -919,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -932,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Tomatlan</t>
@@ -945,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Zapotiltic</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Zapotlan El Grande</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1002,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1015,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1028,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1059,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -1085,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1098,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -1111,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Nuevo Leon</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1186,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>San Juan Quiotepec</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -1212,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -1225,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Palmar De Bravo</t>
@@ -1269,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1282,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1313,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cadereyta De Montes</t>
@@ -1326,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>El Marques</t>
@@ -1339,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -1352,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -1365,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Queretaro</t>
@@ -1378,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1409,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -1422,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -1435,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>San Luis Potosi</t>
@@ -1448,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Venado</t>
@@ -1461,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -1474,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1505,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -1518,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1549,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -1562,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -1575,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -1588,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1619,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Rio Grande</t>
@@ -1632,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Sombrerete</t>
@@ -1645,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Total</t>
